--- a/biology/Botanique/Parc_Jakobson/Parc_Jakobson.xlsx
+++ b/biology/Botanique/Parc_Jakobson/Parc_Jakobson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Jakobson (estonien : Jakobsoni park) est un parc de Pärnu en Estonie.
 </t>
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc porte le nom d'August Jakobson.
-Le parc a été construit à la place des bâtiments detruits par les bombardements pendant la Seconde Guerre mondiale[1].
-Le mémorial à August Jakobson érigé dans le parc en 1973[2].
-Comme il y avait de nombreux beaux bâtiments dans la zone du parc avant la guerre, plusieurs propositions ont été faites pour reconstruire le parc avec des bâtiments adaptés à l'environnement afin de restaurer l'intégrité de la rue Rüütli tänav et de revitaliser la zone[1],[3].
+Le parc a été construit à la place des bâtiments detruits par les bombardements pendant la Seconde Guerre mondiale.
+Le mémorial à August Jakobson érigé dans le parc en 1973.
+Comme il y avait de nombreux beaux bâtiments dans la zone du parc avant la guerre, plusieurs propositions ont été faites pour reconstruire le parc avec des bâtiments adaptés à l'environnement afin de restaurer l'intégrité de la rue Rüütli tänav et de revitaliser la zone,.
 </t>
         </is>
       </c>
